--- a/backend/projects/project-a-123-sunset-blvd/data/08_LABOUR_TIMESHEETS/Timesheets_Aug_2024.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/08_LABOUR_TIMESHEETS/Timesheets_Aug_2024.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site Supervisor" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Labour" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Site Supervisor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Labour" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,25 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,12 +621,922 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40343</v>
+      </c>
+      <c r="D8" t="n">
+        <v>29271</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30260</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>28226</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20005</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6079</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>43713</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E10" t="n">
+        <v>26558</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>38185</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13760</v>
+      </c>
+      <c r="E11" t="n">
+        <v>24351</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>31489</v>
+      </c>
+      <c r="D12" t="n">
+        <v>46838</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47623</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>17365</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8511</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12314</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3544</v>
+      </c>
+      <c r="E14" t="n">
+        <v>27000</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1997</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46915</v>
+      </c>
+      <c r="E15" t="n">
+        <v>35276</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>31662</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15669</v>
+      </c>
+      <c r="E16" t="n">
+        <v>48038</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24608</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4588</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4888</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>22819</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17331</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10457</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>40043</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7149</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13634</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>31529</v>
+      </c>
+      <c r="D20" t="n">
+        <v>48809</v>
+      </c>
+      <c r="E20" t="n">
+        <v>19456</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>44409</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27251</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40181</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>48563</v>
+      </c>
+      <c r="D22" t="n">
+        <v>19192</v>
+      </c>
+      <c r="E22" t="n">
+        <v>18869</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8932</v>
+      </c>
+      <c r="D23" t="n">
+        <v>19889</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>29267</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2841</v>
+      </c>
+      <c r="E24" t="n">
+        <v>47211</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>30123</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4576</v>
+      </c>
+      <c r="E25" t="n">
+        <v>37745</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>41903</v>
+      </c>
+      <c r="D26" t="n">
+        <v>33279</v>
+      </c>
+      <c r="E26" t="n">
+        <v>22627</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7257</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14878</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45707</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>22352</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7710</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10558</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>33603</v>
+      </c>
+      <c r="D29" t="n">
+        <v>19036</v>
+      </c>
+      <c r="E29" t="n">
+        <v>16695</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>19166</v>
+      </c>
+      <c r="D30" t="n">
+        <v>14487</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5889</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>46167</v>
+      </c>
+      <c r="D31" t="n">
+        <v>33982</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26323</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>24787</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3554</v>
+      </c>
+      <c r="E32" t="n">
+        <v>23604</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>27500</v>
+      </c>
+      <c r="D33" t="n">
+        <v>42672</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15158</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>47409</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34763</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32682</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>43406</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11553</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11633</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>33026</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7631</v>
+      </c>
+      <c r="E36" t="n">
+        <v>27506</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>46363</v>
+      </c>
+      <c r="D37" t="n">
+        <v>47589</v>
+      </c>
+      <c r="E37" t="n">
+        <v>34378</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>34298</v>
+      </c>
+      <c r="D38" t="n">
+        <v>39373</v>
+      </c>
+      <c r="E38" t="n">
+        <v>44261</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>12962</v>
+      </c>
+      <c r="D39" t="n">
+        <v>29354</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5631</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>45342</v>
+      </c>
+      <c r="D40" t="n">
+        <v>14547</v>
+      </c>
+      <c r="E40" t="n">
+        <v>30491</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>38211</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7953</v>
+      </c>
+      <c r="E41" t="n">
+        <v>28667</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>13592</v>
+      </c>
+      <c r="D42" t="n">
+        <v>44132</v>
+      </c>
+      <c r="E42" t="n">
+        <v>42562</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
